--- a/Data/t12.1.xlsx
+++ b/Data/t12.1.xlsx
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Outros produtos comestíveis e preparações</t>
+          <t>Outros hidrocarbonetos e seus derivados halogenados, sulfonados, nitrados ou nitrosados</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Outros hidrocarbonetos e seus derivados halogenados, sulfonados, nitrados ou nitrosados</t>
+          <t>Outros produtos comestíveis e preparações</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
